--- a/DataDescription.xlsx
+++ b/DataDescription.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arwa.Sayegh\Desktop\SideProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t xml:space="preserve">downo </t>
   </si>
@@ -198,13 +193,107 @@
   </si>
   <si>
     <t>TRAM</t>
+  </si>
+  <si>
+    <r>
+      <t>bus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates that the calculated route should prefer travel by bus.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>subway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates that the calculated route should prefer travel by subway.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>train</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates that the calculated route should prefer travel by train.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tram</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates that the calculated route should prefer travel by tram and light rail.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>rail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> indicates that the calculated route should prefer travel by train, tram, light rail, and subway. This is equivalent to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF37474F"/>
+        <rFont val="Roboto Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>transit_mode=train|tram|subway</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212121"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/maps/documentation/distance-matrix/intro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +304,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF37474F"/>
+      <name val="Roboto Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -246,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,6 +371,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,19 +653,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.45">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -554,7 +673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -570,7 +689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="14.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="14.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -586,7 +705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -594,7 +713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.45">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -602,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="14.45">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -610,7 +729,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="14.45">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -618,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="14.45">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,7 +745,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="14.45">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -634,7 +753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="14.45">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -642,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="14.45">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,7 +769,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="14.45">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,7 +777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="14.45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -666,7 +785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="14.45">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -674,7 +793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.45">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,47 +801,70 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
+      <c r="E20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -730,7 +872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
@@ -738,7 +880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
@@ -746,7 +888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
@@ -754,7 +896,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
@@ -762,7 +904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
@@ -770,7 +912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
         <v>51</v>
       </c>
@@ -778,7 +920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>52</v>
       </c>
@@ -786,7 +928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
@@ -794,7 +936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -802,7 +944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
